--- a/Bird_work/文档类/疑难杂症翻译.xlsx
+++ b/Bird_work/文档类/疑难杂症翻译.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>change to «ПЕРЕНЕСТИ НА SD-КАРТУ»</t>
   </si>
@@ -81,68 +81,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">必须重启后才生效，因为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adb shell </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">后，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">看进程不知道是哪个，
-直接杀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">settings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">没用
+      <t xml:space="preserve">
 有时候不要质疑自己改</t>
     </r>
     <r>
@@ -523,13 +462,10 @@
     <t>注意最下面的那个紧急拨号竟然不是在frameworks/base/packages/Keyguard</t>
   </si>
   <si>
-    <t>而是在packages/service/Telephony  我真是操他妈的</t>
-  </si>
-  <si>
-    <t>有时候关于字符串要点进去，看关联到哪个应用或服务 ，再去那里面改。</t>
-  </si>
-  <si>
-    <t>好像是在SystemUI里面改了才生效的。</t>
+    <t>实际也不再packages/service/Telephony ,而是在SystemUI里面。</t>
+  </si>
+  <si>
+    <t>frameworks/base/packages/SystemUI</t>
   </si>
   <si>
     <t>修改网络制式</t>
@@ -575,7 +511,7 @@
     <t>AppsFragment.java</t>
   </si>
   <si>
-    <t>        	holder.mAppName.setText(appItem.mAppName);
+    <t>holder.mAppName.setText(appItem.mAppName);
         	//liuqipeng add
 			if(Locale.getDefault().getLanguage().endsWith("es")){
 				if((appItem.mAppName).equalsIgnoreCase("NetWorkLocation")){
@@ -584,8 +520,7 @@
 			}
 			//liuqipeng
             holder.mAppIcon.setImageDrawable(appItem.mAppIcon);
-            holder.mAppSize.setText(appItem.mAppPermSize);
-</t>
+            holder.mAppSize.setText(appItem.mAppPermSize);</t>
   </si>
   <si>
     <t>实测es-rUS这个语言获取语言得到的结果也是es结尾的，因为上面代码生效了。</t>
@@ -598,7 +533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -691,6 +626,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -767,7 +708,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -861,6 +802,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -876,7 +821,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in 常规 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in 常规 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -946,15 +891,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>253440</xdr:colOff>
+      <xdr:colOff>280440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>590760</xdr:colOff>
+      <xdr:colOff>617400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -969,8 +914,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="253440" y="0"/>
-          <a:ext cx="2320200" cy="4877280"/>
+          <a:off x="280440" y="0"/>
+          <a:ext cx="2319840" cy="4876920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -985,15 +930,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>312480</xdr:colOff>
+      <xdr:colOff>339480</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>487800</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:colOff>514440</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1008,8 +953,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="312480" y="5271120"/>
-          <a:ext cx="2158200" cy="5816520"/>
+          <a:off x="339480" y="5262120"/>
+          <a:ext cx="2157840" cy="5816160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,15 +969,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>466560</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:colOff>493560</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:colOff>29880</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1047,8 +992,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="466560" y="11909160"/>
-          <a:ext cx="2841840" cy="4403880"/>
+          <a:off x="493560" y="11900160"/>
+          <a:ext cx="2841480" cy="4403520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,15 +1008,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>632520</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:colOff>659520</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>265320</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:colOff>291960</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1086,8 +1031,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9972720" y="11858760"/>
-          <a:ext cx="2937960" cy="5289480"/>
+          <a:off x="9999720" y="11849760"/>
+          <a:ext cx="2937600" cy="5289120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,15 +1047,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:colOff>403560</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:colOff>232560</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1125,8 +1070,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="376560" y="17462880"/>
-          <a:ext cx="2473200" cy="4530240"/>
+          <a:off x="403560" y="17453880"/>
+          <a:ext cx="2472840" cy="4529880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1141,15 +1086,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>625320</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:colOff>652320</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>65160</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1158,15 +1103,15 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="0" t="0" r="0" b="39288"/>
+        <a:srcRect l="0" t="0" r="0" b="39276"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="625320" y="22958640"/>
-          <a:ext cx="2718360" cy="2873160"/>
+          <a:off x="652320" y="22949640"/>
+          <a:ext cx="2718000" cy="2872800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1181,15 +1126,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161640</xdr:colOff>
+      <xdr:colOff>188640</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>382320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>419760</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:colOff>446400</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1198,8 +1143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="822600" y="26207640"/>
-          <a:ext cx="2241000" cy="1101240"/>
+          <a:off x="849600" y="26198640"/>
+          <a:ext cx="2240640" cy="1100880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1247,15 +1192,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161640</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:colOff>188640</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>1490760</xdr:rowOff>
+      <xdr:rowOff>1690560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1270,8 +1215,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="822600" y="28437840"/>
-          <a:ext cx="1922760" cy="3354480"/>
+          <a:off x="849600" y="28428840"/>
+          <a:ext cx="1922400" cy="3354120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1286,15 +1231,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>467280</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:colOff>494280</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>60480</xdr:colOff>
+      <xdr:colOff>87120</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>541440</xdr:rowOff>
+      <xdr:rowOff>741240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1303,8 +1248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="467280" y="30242160"/>
-          <a:ext cx="2237040" cy="600840"/>
+          <a:off x="494280" y="30233160"/>
+          <a:ext cx="2236680" cy="600480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,15 +1315,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:colOff>188280</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>608400</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:colOff>635040</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1387,8 +1332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="822240" y="29708280"/>
-          <a:ext cx="447120" cy="255600"/>
+          <a:off x="849240" y="29699280"/>
+          <a:ext cx="446760" cy="255240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1407,15 +1352,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>481680</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:colOff>508680</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:colOff>160920</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1430,8 +1375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="481680" y="38646000"/>
-          <a:ext cx="2296440" cy="3061080"/>
+          <a:off x="508680" y="38637000"/>
+          <a:ext cx="2296080" cy="3060720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,15 +1391,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:colOff>82440</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:colOff>29880</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1469,8 +1414,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="716400" y="42747480"/>
-          <a:ext cx="1930680" cy="2574720"/>
+          <a:off x="743400" y="42738480"/>
+          <a:ext cx="1930320" cy="2574360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1485,15 +1430,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>135000</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:colOff>162000</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>602280</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:colOff>628920</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1508,8 +1453,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="795960" y="46454040"/>
-          <a:ext cx="2450160" cy="3268800"/>
+          <a:off x="822960" y="46445040"/>
+          <a:ext cx="2449800" cy="3268440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,15 +1469,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>269640</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:colOff>296640</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3377520</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:colOff>3404160</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1547,8 +1492,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2252520" y="50526000"/>
-          <a:ext cx="4430160" cy="3684600"/>
+          <a:off x="2279520" y="50517000"/>
+          <a:ext cx="4429800" cy="3684240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1563,15 +1508,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>352440</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:colOff>379440</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>519120</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:colOff>545760</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1580,8 +1525,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1674000" y="51006960"/>
-          <a:ext cx="166680" cy="617760"/>
+          <a:off x="1701000" y="50997240"/>
+          <a:ext cx="166320" cy="617400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1601,15 +1546,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:colOff>77040</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3397680</xdr:colOff>
-      <xdr:row>266</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:colOff>3424320</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1624,8 +1569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3355200" y="54781200"/>
-          <a:ext cx="3347640" cy="4532760"/>
+          <a:off x="3382200" y="54772200"/>
+          <a:ext cx="3347280" cy="4532400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1640,15 +1585,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
-      <xdr:row>268</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:colOff>205920</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>431640</xdr:colOff>
-      <xdr:row>285</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:colOff>458280</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1663,8 +1608,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="178920" y="59755680"/>
-          <a:ext cx="2896560" cy="4920480"/>
+          <a:off x="205920" y="59746680"/>
+          <a:ext cx="2896200" cy="4920120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1686,8 +1631,8 @@
   </sheetPr>
   <dimension ref="D8:P284"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G286" activeCellId="0" sqref="G286"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F175" activeCellId="0" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1720,7 +1665,7 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2005,25 +1950,23 @@
       <c r="G167" s="22"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F168" s="23" t="s">
+      <c r="F168" s="24" t="s">
         <v>37</v>
       </c>
       <c r="G168" s="22"/>
     </row>
     <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F169" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="F169" s="23"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F170" s="24"/>
+      <c r="F170" s="25"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F171" s="24"/>
+      <c r="F171" s="25"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F177" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2040,7 +1983,7 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F185" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,7 +1994,7 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F198" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,7 +2008,7 @@
     </row>
     <row r="202" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F202" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,12 +2025,12 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G225" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G226" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H226" s="17"/>
       <c r="I226" s="17"/>
@@ -2099,7 +2042,7 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G227" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H227" s="17"/>
       <c r="I227" s="17"/>
@@ -2111,7 +2054,7 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G228" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H228" s="17"/>
       <c r="I228" s="17"/>
@@ -2123,7 +2066,7 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G229" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H229" s="17"/>
       <c r="I229" s="17"/>
@@ -2165,12 +2108,12 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G246" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G247" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H247" s="17"/>
       <c r="I247" s="17"/>
@@ -2208,22 +2151,22 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F276" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F277" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F278" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="165.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F279" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,7 +2174,7 @@
     </row>
     <row r="281" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F281" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Bird_work/文档类/疑难杂症翻译.xlsx
+++ b/Bird_work/文档类/疑难杂症翻译.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>change to «ПЕРЕНЕСТИ НА SD-КАРТУ»</t>
   </si>
@@ -525,6 +525,9 @@
   <si>
     <t>实测es-rUS这个语言获取语言得到的结果也是es结尾的，因为上面代码生效了。</t>
   </si>
+  <si>
+    <t>vendor/mediatek/proprietary/frameworks/base/res/res/drawable*/account_select_notification.png</t>
+  </si>
 </sst>
 </file>
 
@@ -533,7 +536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -626,12 +629,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -708,7 +705,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -802,10 +799,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -821,7 +814,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in 常规 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in 常规 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -891,15 +884,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>280440</xdr:colOff>
+      <xdr:colOff>307440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>617400</xdr:colOff>
+      <xdr:colOff>644040</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -914,8 +907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="280440" y="0"/>
-          <a:ext cx="2319840" cy="4876920"/>
+          <a:off x="307440" y="0"/>
+          <a:ext cx="2319480" cy="4876560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -930,15 +923,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>339480</xdr:colOff>
+      <xdr:colOff>366480</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>514440</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -953,8 +946,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="339480" y="5262120"/>
-          <a:ext cx="2157840" cy="5816160"/>
+          <a:off x="366480" y="5253120"/>
+          <a:ext cx="2157480" cy="5815800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,15 +962,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>493560</xdr:colOff>
+      <xdr:colOff>520560</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>29880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -992,8 +985,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="493560" y="11900160"/>
-          <a:ext cx="2841480" cy="4403520"/>
+          <a:off x="520560" y="11891160"/>
+          <a:ext cx="2841120" cy="4403160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1007,16 +1000,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>659520</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25560</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>318600</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1031,8 +1024,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9999720" y="11849760"/>
-          <a:ext cx="2937600" cy="5289120"/>
+          <a:off x="10026720" y="11840760"/>
+          <a:ext cx="2937240" cy="5288760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1047,15 +1040,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>403560</xdr:colOff>
+      <xdr:colOff>430560</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>232560</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1070,48 +1063,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="403560" y="17453880"/>
-          <a:ext cx="2472840" cy="4529880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>652320</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:srcRect l="0" t="0" r="0" b="39276"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="652320" y="22949640"/>
-          <a:ext cx="2718000" cy="2872800"/>
+          <a:off x="430560" y="17444880"/>
+          <a:ext cx="2472480" cy="4529520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1126,15 +1079,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>188640</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>172080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:srcRect l="0" t="0" r="0" b="39264"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679320" y="22940640"/>
+          <a:ext cx="2717640" cy="2872440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215640</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>382320</xdr:rowOff>
+      <xdr:rowOff>373320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>446400</xdr:colOff>
+      <xdr:colOff>473040</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1143,8 +1136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="849600" y="26198640"/>
-          <a:ext cx="2240640" cy="1100880"/>
+          <a:off x="876600" y="26189640"/>
+          <a:ext cx="2240280" cy="1100520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,15 +1185,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>188640</xdr:colOff>
+      <xdr:colOff>215640</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>128160</xdr:colOff>
+      <xdr:colOff>154800</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>1690560</xdr:rowOff>
+      <xdr:rowOff>1681200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1215,8 +1208,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="849600" y="28428840"/>
-          <a:ext cx="1922400" cy="3354120"/>
+          <a:off x="876600" y="28419840"/>
+          <a:ext cx="1922040" cy="3353760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1231,15 +1224,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>494280</xdr:colOff>
+      <xdr:colOff>521280</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>87120</xdr:colOff>
+      <xdr:colOff>113760</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>741240</xdr:rowOff>
+      <xdr:rowOff>731880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1248,8 +1241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="494280" y="30233160"/>
-          <a:ext cx="2236680" cy="600480"/>
+          <a:off x="521280" y="30224160"/>
+          <a:ext cx="2236320" cy="600120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,15 +1308,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:colOff>215280</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>635040</xdr:colOff>
+      <xdr:colOff>661680</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1332,8 +1325,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="849240" y="29699280"/>
-          <a:ext cx="446760" cy="255240"/>
+          <a:off x="876240" y="29690280"/>
+          <a:ext cx="446400" cy="254880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1352,15 +1345,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>508680</xdr:colOff>
+      <xdr:colOff>535680</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>160920</xdr:colOff>
+      <xdr:colOff>187560</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1375,8 +1368,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="508680" y="38637000"/>
-          <a:ext cx="2296080" cy="3060720"/>
+          <a:off x="535680" y="38628000"/>
+          <a:ext cx="2295720" cy="3060360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1391,15 +1384,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>109440</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>29880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1414,8 +1407,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="743400" y="42738480"/>
-          <a:ext cx="1930320" cy="2574360"/>
+          <a:off x="770400" y="42729480"/>
+          <a:ext cx="1929960" cy="2574000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1430,15 +1423,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>628920</xdr:colOff>
+      <xdr:colOff>655560</xdr:colOff>
       <xdr:row>214</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1453,8 +1446,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="822960" y="46445040"/>
-          <a:ext cx="2449800" cy="3268440"/>
+          <a:off x="849960" y="46436040"/>
+          <a:ext cx="2449440" cy="3268080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,15 +1462,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>296640</xdr:colOff>
+      <xdr:colOff>323640</xdr:colOff>
       <xdr:row>218</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3404160</xdr:colOff>
+      <xdr:colOff>3430800</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1492,8 +1485,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2279520" y="50517000"/>
-          <a:ext cx="4429800" cy="3684240"/>
+          <a:off x="2306520" y="50508000"/>
+          <a:ext cx="4429440" cy="3683880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1508,15 +1501,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>379440</xdr:colOff>
+      <xdr:colOff>405720</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>545760</xdr:colOff>
+      <xdr:colOff>571680</xdr:colOff>
       <xdr:row>225</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1525,8 +1518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1701000" y="50997240"/>
-          <a:ext cx="166320" cy="617400"/>
+          <a:off x="1727280" y="50988240"/>
+          <a:ext cx="165960" cy="617040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1546,15 +1539,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>104040</xdr:colOff>
       <xdr:row>241</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3424320</xdr:colOff>
+      <xdr:colOff>3450960</xdr:colOff>
       <xdr:row>267</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1569,8 +1562,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3382200" y="54772200"/>
-          <a:ext cx="3347280" cy="4532400"/>
+          <a:off x="3409200" y="54763200"/>
+          <a:ext cx="3346920" cy="4532040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1585,15 +1578,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
-      <xdr:row>270</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>232920</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>458280</xdr:colOff>
+      <xdr:colOff>484920</xdr:colOff>
       <xdr:row>286</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1608,8 +1601,47 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="205920" y="59746680"/>
-          <a:ext cx="2896200" cy="4920120"/>
+          <a:off x="232920" y="59737680"/>
+          <a:ext cx="2895840" cy="4919760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628560</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图像 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660960" y="66264120"/>
+          <a:ext cx="1950480" cy="3500640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1629,10 +1661,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D8:P284"/>
+  <dimension ref="D8:P301"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F175" activeCellId="0" sqref="F175"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A283" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F303" activeCellId="0" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1950,7 +1982,7 @@
       <c r="G167" s="22"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F168" s="24" t="s">
+      <c r="F168" s="23" t="s">
         <v>37</v>
       </c>
       <c r="G168" s="22"/>
@@ -1959,10 +1991,10 @@
       <c r="F169" s="23"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F170" s="25"/>
+      <c r="F170" s="24"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F171" s="25"/>
+      <c r="F171" s="24"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F177" s="0" t="s">
@@ -2185,6 +2217,11 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F284" s="17"/>
+    </row>
+    <row r="301" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F301" s="19" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
